--- a/timeline.xlsx
+++ b/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tynka/WizualizacjaDanych/Pokemon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EB6ADA-21DF-C745-ACE7-DD068C31D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79326A9F-1ED9-164F-A164-3486742E5E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="940" windowWidth="14900" windowHeight="17280" xr2:uid="{5BD6916B-42F7-5645-AE3B-4DDB62D8C311}"/>
   </bookViews>
